--- a/natmiOut/OldD2/LR-pairs_lrc2p/Slit2-Robo2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Slit2-Robo2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.07137927312602731</v>
+        <v>0.1259785</v>
       </c>
       <c r="H2">
-        <v>0.07137927312602731</v>
+        <v>0.251957</v>
       </c>
       <c r="I2">
-        <v>0.05637913187476376</v>
+        <v>0.07482967403937346</v>
       </c>
       <c r="J2">
-        <v>0.05637913187476376</v>
+        <v>0.05693179265879337</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.340252822900854</v>
+        <v>0.5215465</v>
       </c>
       <c r="N2">
-        <v>0.340252822900854</v>
+        <v>1.043093</v>
       </c>
       <c r="O2">
-        <v>0.4013687992532526</v>
+        <v>0.3993854683363039</v>
       </c>
       <c r="P2">
-        <v>0.4013687992532526</v>
+        <v>0.3071469942766215</v>
       </c>
       <c r="Q2">
-        <v>0.02428699917774186</v>
+        <v>0.06570364575025001</v>
       </c>
       <c r="R2">
-        <v>0.02428699917774186</v>
+        <v>0.262814583001</v>
       </c>
       <c r="S2">
-        <v>0.02262882446351471</v>
+        <v>0.02988588441166813</v>
       </c>
       <c r="T2">
-        <v>0.02262882446351471</v>
+        <v>0.01748642899392821</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,123 +587,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.07137927312602731</v>
+        <v>0.1259785</v>
       </c>
       <c r="H3">
-        <v>0.07137927312602731</v>
+        <v>0.251957</v>
       </c>
       <c r="I3">
-        <v>0.05637913187476376</v>
+        <v>0.07482967403937346</v>
       </c>
       <c r="J3">
-        <v>0.05637913187476376</v>
+        <v>0.05693179265879337</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.50747830003121</v>
+        <v>0.002342</v>
       </c>
       <c r="N3">
-        <v>0.50747830003121</v>
+        <v>0.007026</v>
       </c>
       <c r="O3">
-        <v>0.5986312007467474</v>
+        <v>0.001793436954986034</v>
       </c>
       <c r="P3">
-        <v>0.5986312007467474</v>
+        <v>0.002068861340060323</v>
       </c>
       <c r="Q3">
-        <v>0.03622343218345977</v>
+        <v>0.000295041647</v>
       </c>
       <c r="R3">
-        <v>0.03622343218345977</v>
+        <v>0.001770249882</v>
       </c>
       <c r="S3">
-        <v>0.03375030741124905</v>
+        <v>0.0001342023027517714</v>
       </c>
       <c r="T3">
-        <v>0.03375030741124905</v>
+        <v>0.0001177839848521077</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.711962846236912</v>
+        <v>0.1259785</v>
       </c>
       <c r="H4">
-        <v>0.711962846236912</v>
+        <v>0.251957</v>
       </c>
       <c r="I4">
-        <v>0.5623459786015482</v>
+        <v>0.07482967403937346</v>
       </c>
       <c r="J4">
-        <v>0.5623459786015482</v>
+        <v>0.05693179265879337</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.340252822900854</v>
+        <v>0.7819839999999999</v>
       </c>
       <c r="N4">
-        <v>0.340252822900854</v>
+        <v>2.345952</v>
       </c>
       <c r="O4">
-        <v>0.4013687992532526</v>
+        <v>0.59882109470871</v>
       </c>
       <c r="P4">
-        <v>0.4013687992532526</v>
+        <v>0.6907841443833183</v>
       </c>
       <c r="Q4">
-        <v>0.242247368232636</v>
+        <v>0.09851317134399998</v>
       </c>
       <c r="R4">
-        <v>0.242247368232636</v>
+        <v>0.5910790280639998</v>
       </c>
       <c r="S4">
-        <v>0.2257081301961987</v>
+        <v>0.04480958732495356</v>
       </c>
       <c r="T4">
-        <v>0.2257081301961987</v>
+        <v>0.03932757968001305</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,196 +711,196 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.711962846236912</v>
+        <v>0.8414976666666667</v>
       </c>
       <c r="H5">
-        <v>0.711962846236912</v>
+        <v>2.524493</v>
       </c>
       <c r="I5">
-        <v>0.5623459786015482</v>
+        <v>0.4998392273408559</v>
       </c>
       <c r="J5">
-        <v>0.5623459786015482</v>
+        <v>0.570430319636189</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.50747830003121</v>
+        <v>0.5215465</v>
       </c>
       <c r="N5">
-        <v>0.50747830003121</v>
+        <v>1.043093</v>
       </c>
       <c r="O5">
-        <v>0.5986312007467474</v>
+        <v>0.3993854683363039</v>
       </c>
       <c r="P5">
-        <v>0.5986312007467474</v>
+        <v>0.3071469942766215</v>
       </c>
       <c r="Q5">
-        <v>0.3613056948936898</v>
+        <v>0.4388801628081667</v>
       </c>
       <c r="R5">
-        <v>0.3613056948936898</v>
+        <v>2.633280976849</v>
       </c>
       <c r="S5">
-        <v>0.3366378484053495</v>
+        <v>0.199628523904384</v>
       </c>
       <c r="T5">
-        <v>0.3366378484053495</v>
+        <v>0.1752059581205079</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.0706041221358726</v>
+        <v>0.8414976666666667</v>
       </c>
       <c r="H6">
-        <v>0.0706041221358726</v>
+        <v>2.524493</v>
       </c>
       <c r="I6">
-        <v>0.05576687655213495</v>
+        <v>0.4998392273408559</v>
       </c>
       <c r="J6">
-        <v>0.05576687655213495</v>
+        <v>0.570430319636189</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.340252822900854</v>
+        <v>0.002342</v>
       </c>
       <c r="N6">
-        <v>0.340252822900854</v>
+        <v>0.007026</v>
       </c>
       <c r="O6">
-        <v>0.4013687992532526</v>
+        <v>0.001793436954986034</v>
       </c>
       <c r="P6">
-        <v>0.4013687992532526</v>
+        <v>0.002068861340060323</v>
       </c>
       <c r="Q6">
-        <v>0.02402325186516733</v>
+        <v>0.001970787535333334</v>
       </c>
       <c r="R6">
-        <v>0.02402325186516733</v>
+        <v>0.017737087818</v>
       </c>
       <c r="S6">
-        <v>0.02238308427983477</v>
+        <v>0.0008964301418647566</v>
       </c>
       <c r="T6">
-        <v>0.02238308427983477</v>
+        <v>0.001180141235493564</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.0706041221358726</v>
+        <v>0.8414976666666667</v>
       </c>
       <c r="H7">
-        <v>0.0706041221358726</v>
+        <v>2.524493</v>
       </c>
       <c r="I7">
-        <v>0.05576687655213495</v>
+        <v>0.4998392273408559</v>
       </c>
       <c r="J7">
-        <v>0.05576687655213495</v>
+        <v>0.570430319636189</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.50747830003121</v>
+        <v>0.7819839999999999</v>
       </c>
       <c r="N7">
-        <v>0.50747830003121</v>
+        <v>2.345952</v>
       </c>
       <c r="O7">
-        <v>0.5986312007467474</v>
+        <v>0.59882109470871</v>
       </c>
       <c r="P7">
-        <v>0.5986312007467474</v>
+        <v>0.6907841443833183</v>
       </c>
       <c r="Q7">
-        <v>0.03583005987670854</v>
+        <v>0.6580377113706666</v>
       </c>
       <c r="R7">
-        <v>0.03583005987670854</v>
+        <v>5.922339402335999</v>
       </c>
       <c r="S7">
-        <v>0.03338379227230018</v>
+        <v>0.2993142732946071</v>
       </c>
       <c r="T7">
-        <v>0.03338379227230018</v>
+        <v>0.3940442202801875</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -906,111 +909,545 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.412112151961089</v>
+        <v>0.010485</v>
       </c>
       <c r="H8">
-        <v>0.412112151961089</v>
+        <v>0.031455</v>
       </c>
       <c r="I8">
-        <v>0.325508012971553</v>
+        <v>0.006227960582979085</v>
       </c>
       <c r="J8">
-        <v>0.325508012971553</v>
+        <v>0.007107520481996314</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.340252822900854</v>
+        <v>0.5215465</v>
       </c>
       <c r="N8">
-        <v>0.340252822900854</v>
+        <v>1.043093</v>
       </c>
       <c r="O8">
-        <v>0.4013687992532526</v>
+        <v>0.3993854683363039</v>
       </c>
       <c r="P8">
-        <v>0.4013687992532526</v>
+        <v>0.3071469942766215</v>
       </c>
       <c r="Q8">
-        <v>0.1402223230565063</v>
+        <v>0.0054684150525</v>
       </c>
       <c r="R8">
-        <v>0.1402223230565063</v>
+        <v>0.032810490315</v>
       </c>
       <c r="S8">
-        <v>0.1306487603137044</v>
+        <v>0.002487356954213142</v>
       </c>
       <c r="T8">
-        <v>0.1306487603137044</v>
+        <v>0.002183053552804692</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.010485</v>
+      </c>
+      <c r="H9">
+        <v>0.031455</v>
+      </c>
+      <c r="I9">
+        <v>0.006227960582979085</v>
+      </c>
+      <c r="J9">
+        <v>0.007107520481996314</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.002342</v>
+      </c>
+      <c r="N9">
+        <v>0.007026</v>
+      </c>
+      <c r="O9">
+        <v>0.001793436954986034</v>
+      </c>
+      <c r="P9">
+        <v>0.002068861340060323</v>
+      </c>
+      <c r="Q9">
+        <v>2.455587E-05</v>
+      </c>
+      <c r="R9">
+        <v>0.00022100283</v>
+      </c>
+      <c r="S9">
+        <v>1.116945466371106E-05</v>
+      </c>
+      <c r="T9">
+        <v>1.470447434888909E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.010485</v>
+      </c>
+      <c r="H10">
+        <v>0.031455</v>
+      </c>
+      <c r="I10">
+        <v>0.006227960582979085</v>
+      </c>
+      <c r="J10">
+        <v>0.007107520481996314</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.7819839999999999</v>
+      </c>
+      <c r="N10">
+        <v>2.345952</v>
+      </c>
+      <c r="O10">
+        <v>0.59882109470871</v>
+      </c>
+      <c r="P10">
+        <v>0.6907841443833183</v>
+      </c>
+      <c r="Q10">
+        <v>0.008199102239999999</v>
+      </c>
+      <c r="R10">
+        <v>0.07379192015999998</v>
+      </c>
+      <c r="S10">
+        <v>0.003729434174102232</v>
+      </c>
+      <c r="T10">
+        <v>0.004909762454842734</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.206538</v>
+      </c>
+      <c r="H11">
+        <v>0.619614</v>
+      </c>
+      <c r="I11">
+        <v>0.1226810226883485</v>
+      </c>
+      <c r="J11">
+        <v>0.1400069685560854</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.5215465</v>
+      </c>
+      <c r="N11">
+        <v>1.043093</v>
+      </c>
+      <c r="O11">
+        <v>0.3993854683363039</v>
+      </c>
+      <c r="P11">
+        <v>0.3071469942766215</v>
+      </c>
+      <c r="Q11">
+        <v>0.107719171017</v>
+      </c>
+      <c r="R11">
+        <v>0.646315026102</v>
+      </c>
+      <c r="S11">
+        <v>0.0489970177023628</v>
+      </c>
+      <c r="T11">
+        <v>0.04300271956978307</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.206538</v>
+      </c>
+      <c r="H12">
+        <v>0.619614</v>
+      </c>
+      <c r="I12">
+        <v>0.1226810226883485</v>
+      </c>
+      <c r="J12">
+        <v>0.1400069685560854</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.002342</v>
+      </c>
+      <c r="N12">
+        <v>0.007026</v>
+      </c>
+      <c r="O12">
+        <v>0.001793436954986034</v>
+      </c>
+      <c r="P12">
+        <v>0.002068861340060323</v>
+      </c>
+      <c r="Q12">
+        <v>0.000483711996</v>
+      </c>
+      <c r="R12">
+        <v>0.004353407964</v>
+      </c>
+      <c r="S12">
+        <v>0.0002200206797647644</v>
+      </c>
+      <c r="T12">
+        <v>0.0002896550045847262</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.206538</v>
+      </c>
+      <c r="H13">
+        <v>0.619614</v>
+      </c>
+      <c r="I13">
+        <v>0.1226810226883485</v>
+      </c>
+      <c r="J13">
+        <v>0.1400069685560854</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.7819839999999999</v>
+      </c>
+      <c r="N13">
+        <v>2.345952</v>
+      </c>
+      <c r="O13">
+        <v>0.59882109470871</v>
+      </c>
+      <c r="P13">
+        <v>0.6907841443833183</v>
+      </c>
+      <c r="Q13">
+        <v>0.161509411392</v>
+      </c>
+      <c r="R13">
+        <v>1.453584702528</v>
+      </c>
+      <c r="S13">
+        <v>0.07346398430622096</v>
+      </c>
+      <c r="T13">
+        <v>0.09671459398171757</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B14" t="s">
         <v>25</v>
       </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.412112151961089</v>
-      </c>
-      <c r="H9">
-        <v>0.412112151961089</v>
-      </c>
-      <c r="I9">
-        <v>0.325508012971553</v>
-      </c>
-      <c r="J9">
-        <v>0.325508012971553</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.50747830003121</v>
-      </c>
-      <c r="N9">
-        <v>0.50747830003121</v>
-      </c>
-      <c r="O9">
-        <v>0.5986312007467474</v>
-      </c>
-      <c r="P9">
-        <v>0.5986312007467474</v>
-      </c>
-      <c r="Q9">
-        <v>0.2091379742994171</v>
-      </c>
-      <c r="R9">
-        <v>0.2091379742994171</v>
-      </c>
-      <c r="S9">
-        <v>0.1948592526578486</v>
-      </c>
-      <c r="T9">
-        <v>0.1948592526578486</v>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.4990375</v>
+      </c>
+      <c r="H14">
+        <v>0.998075</v>
+      </c>
+      <c r="I14">
+        <v>0.2964221153484431</v>
+      </c>
+      <c r="J14">
+        <v>0.225523398666936</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.5215465</v>
+      </c>
+      <c r="N14">
+        <v>1.043093</v>
+      </c>
+      <c r="O14">
+        <v>0.3993854683363039</v>
+      </c>
+      <c r="P14">
+        <v>0.3071469942766215</v>
+      </c>
+      <c r="Q14">
+        <v>0.26027126149375</v>
+      </c>
+      <c r="R14">
+        <v>1.041085045975</v>
+      </c>
+      <c r="S14">
+        <v>0.1183866853636758</v>
+      </c>
+      <c r="T14">
+        <v>0.06926883403959762</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.4990375</v>
+      </c>
+      <c r="H15">
+        <v>0.998075</v>
+      </c>
+      <c r="I15">
+        <v>0.2964221153484431</v>
+      </c>
+      <c r="J15">
+        <v>0.225523398666936</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.002342</v>
+      </c>
+      <c r="N15">
+        <v>0.007026</v>
+      </c>
+      <c r="O15">
+        <v>0.001793436954986034</v>
+      </c>
+      <c r="P15">
+        <v>0.002068861340060323</v>
+      </c>
+      <c r="Q15">
+        <v>0.001168745825</v>
+      </c>
+      <c r="R15">
+        <v>0.007012474950000001</v>
+      </c>
+      <c r="S15">
+        <v>0.0005316143759410307</v>
+      </c>
+      <c r="T15">
+        <v>0.0004665766407810357</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.4990375</v>
+      </c>
+      <c r="H16">
+        <v>0.998075</v>
+      </c>
+      <c r="I16">
+        <v>0.2964221153484431</v>
+      </c>
+      <c r="J16">
+        <v>0.225523398666936</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.7819839999999999</v>
+      </c>
+      <c r="N16">
+        <v>2.345952</v>
+      </c>
+      <c r="O16">
+        <v>0.59882109470871</v>
+      </c>
+      <c r="P16">
+        <v>0.6907841443833183</v>
+      </c>
+      <c r="Q16">
+        <v>0.3902393404</v>
+      </c>
+      <c r="R16">
+        <v>2.3414360424</v>
+      </c>
+      <c r="S16">
+        <v>0.1775038156088262</v>
+      </c>
+      <c r="T16">
+        <v>0.1557879879865574</v>
       </c>
     </row>
   </sheetData>
